--- a/Testing Plan/Test results.xlsx
+++ b/Testing Plan/Test results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CFD85-1937-4840-9E30-F99157F624FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ABF487-9A2B-4AAA-ADF6-99DEB9D99DCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{935C2907-449C-44C3-B022-A7DF0E3E7C1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="833" activeTab="7" xr2:uid="{935C2907-449C-44C3-B022-A7DF0E3E7C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Roughness Sensor" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="GPS Testing " sheetId="3" r:id="rId3"/>
     <sheet name="Image Capture Testing" sheetId="4" r:id="rId4"/>
     <sheet name="Battery Testing" sheetId="5" r:id="rId5"/>
+    <sheet name="Power Unit" sheetId="6" r:id="rId6"/>
+    <sheet name="Data Collection" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="69">
   <si>
     <t>Roughness Sensor/Analysis Testing</t>
   </si>
@@ -209,6 +212,33 @@
   </si>
   <si>
     <t>Test regulated voltage</t>
+  </si>
+  <si>
+    <t>Power Unit</t>
+  </si>
+  <si>
+    <t>During the power unit testing phase, we will be performing a series of tests that will determine the overall power consumption of different components when working together. It will help us determine if we have adequate power available for all our components under normal operational conditions.</t>
+  </si>
+  <si>
+    <t>Power consumption</t>
+  </si>
+  <si>
+    <t>Data Collection and Transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect the data using accelerometer and store it into a buffer in the microcontroller. To check if acceleration data is correctly being read and sample rate is as specified out put the buffer to a terminal.  </t>
+  </si>
+  <si>
+    <t>Collect the data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will be reading minimum of 60 bytes/second from form microcontroller and sending it to Raspberry Pi (central processing unit) using Xbee communication. </t>
+  </si>
+  <si>
+    <t>Test data transmission from xbee to central unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use different data rate speeds to determine the optimal speed to create a fluid data collection and transmission process. </t>
   </si>
 </sst>
 </file>
@@ -239,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +333,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEADBEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF74E9F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE22404"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE874A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,6 +879,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,6 +938,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE22404"/>
+      <color rgb="FFE874A0"/>
+      <color rgb="FF74E9F2"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFEADBEF"/>
     </mruColors>
@@ -1151,8 +1260,8 @@
   </sheetPr>
   <dimension ref="B3:H122"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+    <sheetView topLeftCell="A8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2688,8 +2797,8 @@
   </sheetPr>
   <dimension ref="B3:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H44"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3513,7 +3622,7 @@
   <dimension ref="B3:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H44"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4076,7 +4185,7 @@
   <dimension ref="B3:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:XFD1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4639,8 +4748,8 @@
   </sheetPr>
   <dimension ref="B3:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:H44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5193,4 +5302,1405 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B95F73-D2FC-492C-9D69-749D3298DB65}">
+  <sheetPr>
+    <tabColor rgb="FF74E9F2"/>
+  </sheetPr>
+  <dimension ref="B3:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="2:8" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="31">
+        <v>2</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="86"/>
+      <c r="D28" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="2:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="11"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="10">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H44"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579ED5DC-1CF8-4561-80C3-7DBDEFF761B8}">
+  <sheetPr>
+    <tabColor rgb="FFE22404"/>
+  </sheetPr>
+  <dimension ref="B3:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="99"/>
+      <c r="D8" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="2:8" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="97"/>
+      <c r="D26" s="31">
+        <v>2</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="99"/>
+      <c r="D27" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="99"/>
+      <c r="D28" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="2:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="D30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="11"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="10">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="97"/>
+      <c r="D47" s="31">
+        <v>3</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="31"/>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="99"/>
+      <c r="D50" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+    </row>
+    <row r="51" spans="2:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="101"/>
+      <c r="D51" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="57"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="11"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="6">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="6">
+        <v>3</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="6">
+        <v>4</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="10">
+        <v>5</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H65"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H44"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06269B52-5C1B-4065-B91C-64BE145B9D12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing Plan/Test results.xlsx
+++ b/Testing Plan/Test results.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="107">
   <si>
     <t>Roughness Sensor/Analysis Testing</t>
   </si>
@@ -247,6 +247,111 @@
   </si>
   <si>
     <t>Iven</t>
+  </si>
+  <si>
+    <t>Feb 22nd 2019</t>
+  </si>
+  <si>
+    <t>Pre-condtions: Both Xbees are properly connected to 3.3v power supply and their respective ground. USB serials are used to establish connections to the XCTU</t>
+  </si>
+  <si>
+    <t>Componets under test: Two Digi Xbee S2C ZigBee</t>
+  </si>
+  <si>
+    <t>Test Tools: Digi XCTU configuration tool</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Connect power and ground</t>
+  </si>
+  <si>
+    <t>Connect USB serials</t>
+  </si>
+  <si>
+    <t>Launch XCTU</t>
+  </si>
+  <si>
+    <t>Generate sending frame</t>
+  </si>
+  <si>
+    <t>Send frame</t>
+  </si>
+  <si>
+    <t>Turned on</t>
+  </si>
+  <si>
+    <t>Turn on</t>
+  </si>
+  <si>
+    <t>Detect devices</t>
+  </si>
+  <si>
+    <t>Detected</t>
+  </si>
+  <si>
+    <t>Detect modelues</t>
+  </si>
+  <si>
+    <t>Generate frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generated </t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Launch legacy XCTU</t>
+  </si>
+  <si>
+    <t>Test Tools: Microcontroller-STM32f1, legacy XCTU configuration tool, Keil uVision5</t>
+  </si>
+  <si>
+    <t>Program ucontroller to send frames</t>
+  </si>
+  <si>
+    <t>Check if data were distinguishable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn on </t>
+  </si>
+  <si>
+    <t>Detect modules</t>
+  </si>
+  <si>
+    <t>Signals light on</t>
+  </si>
+  <si>
+    <t>Initializaing,Sending</t>
+  </si>
+  <si>
+    <t>Light turned on</t>
+  </si>
+  <si>
+    <t>Post-Condtion:  Data of 60 bytes were sent and received within 1 second, communication between two Xbees is established.</t>
+  </si>
+  <si>
+    <t>Post-Condtion: Two Xbees were initialized and programed to send different messages simoutaneously, data collected on the receiving Xbee showed success.</t>
+  </si>
+  <si>
+    <t>Two messages</t>
+  </si>
+  <si>
+    <t>Separate and different</t>
+  </si>
+  <si>
+    <t>ON/OFF</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Signal</t>
   </si>
 </sst>
 </file>
@@ -692,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -728,39 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,15 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -797,6 +860,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,34 +884,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,13 +947,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,10 +974,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,7 +983,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,10 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -902,7 +1007,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,10 +1019,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,21 +1034,16 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1284,137 +1390,137 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="42">
+      <c r="C5" s="61"/>
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="63"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8" ht="12.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="2:8" ht="27.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="s">
@@ -1495,33 +1601,33 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="24" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="13"/>
@@ -1533,117 +1639,117 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="42">
+      <c r="C25" s="61"/>
+      <c r="D25" s="62">
         <v>2</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="63"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="44" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="64"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="61" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="65"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="2:8" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="2:8" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="7" t="s">
@@ -1724,33 +1830,33 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="57"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="44" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="13"/>
@@ -1762,117 +1868,117 @@
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="42">
+      <c r="C45" s="61"/>
+      <c r="D45" s="62">
         <v>3</v>
       </c>
-      <c r="E45" s="43"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="63"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="64"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="44" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="45"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="64"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="56"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="44" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="64"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="56"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="61" t="s">
+      <c r="C48" s="53"/>
+      <c r="D48" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="62"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="61"/>
-      <c r="H48" s="65"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="2:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="49" t="s">
+      <c r="C49" s="45"/>
+      <c r="D49" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="51"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="60"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B54" s="7" t="s">
@@ -1953,33 +2059,33 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="48"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="54"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="55"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="57"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="43"/>
     </row>
     <row r="64" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B64" s="13"/>
@@ -1991,117 +2097,117 @@
       <c r="H64" s="13"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="42">
+      <c r="C65" s="61"/>
+      <c r="D65" s="62">
         <v>4</v>
       </c>
-      <c r="E65" s="43"/>
+      <c r="E65" s="63"/>
       <c r="F65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="42"/>
-      <c r="H65" s="63"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="64"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="44" t="s">
+      <c r="C66" s="53"/>
+      <c r="D66" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="45"/>
+      <c r="E66" s="55"/>
       <c r="F66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="64"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="56"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="44" t="s">
+      <c r="C67" s="53"/>
+      <c r="D67" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="45"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="64"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="56"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="61" t="s">
+      <c r="C68" s="53"/>
+      <c r="D68" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="62"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="61"/>
-      <c r="H68" s="65"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="59"/>
     </row>
     <row r="69" spans="2:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="49" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="51"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B70" s="46"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="48"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="54"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="54"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="40"/>
     </row>
     <row r="73" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="58"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="60"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="51"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B74" s="7" t="s">
@@ -2182,33 +2288,33 @@
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B80" s="46"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="48"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="37"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="54"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="40"/>
     </row>
     <row r="82" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="55"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="57"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="43"/>
     </row>
     <row r="84" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B84" s="13"/>
@@ -2220,117 +2326,117 @@
       <c r="H84" s="13"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="42">
+      <c r="C85" s="61"/>
+      <c r="D85" s="62">
         <v>5</v>
       </c>
-      <c r="E85" s="43"/>
+      <c r="E85" s="63"/>
       <c r="F85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="42"/>
-      <c r="H85" s="63"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="64"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="44" t="s">
+      <c r="C86" s="53"/>
+      <c r="D86" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E86" s="45"/>
+      <c r="E86" s="55"/>
       <c r="F86" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="44"/>
-      <c r="H86" s="64"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="56"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="44" t="s">
+      <c r="C87" s="53"/>
+      <c r="D87" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="45"/>
+      <c r="E87" s="55"/>
       <c r="F87" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G87" s="44"/>
-      <c r="H87" s="64"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="56"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="39"/>
-      <c r="D88" s="61" t="s">
+      <c r="C88" s="53"/>
+      <c r="D88" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E88" s="62"/>
+      <c r="E88" s="58"/>
       <c r="F88" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="61"/>
-      <c r="H88" s="65"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="59"/>
     </row>
     <row r="89" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="49" t="s">
+      <c r="C89" s="45"/>
+      <c r="D89" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="51"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="48"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B90" s="46"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="48"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="37"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="54"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="40"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="54"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="40"/>
     </row>
     <row r="93" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B93" s="58"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="60"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="51"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B94" s="7" t="s">
@@ -2411,33 +2517,33 @@
       <c r="H99" s="5"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B100" s="46"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="48"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="37"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="54"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="40"/>
     </row>
     <row r="102" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B102" s="55"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="57"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="43"/>
     </row>
     <row r="104" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B104" s="13"/>
@@ -2449,117 +2555,117 @@
       <c r="H104" s="13"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="37"/>
-      <c r="D105" s="42">
+      <c r="C105" s="61"/>
+      <c r="D105" s="62">
         <v>6</v>
       </c>
-      <c r="E105" s="43"/>
+      <c r="E105" s="63"/>
       <c r="F105" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="63"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="64"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="44" t="s">
+      <c r="C106" s="53"/>
+      <c r="D106" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="45"/>
+      <c r="E106" s="55"/>
       <c r="F106" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="44"/>
-      <c r="H106" s="64"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="56"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="39"/>
-      <c r="D107" s="44" t="s">
+      <c r="C107" s="53"/>
+      <c r="D107" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E107" s="45"/>
+      <c r="E107" s="55"/>
       <c r="F107" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G107" s="44"/>
-      <c r="H107" s="64"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="56"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="39"/>
-      <c r="D108" s="61" t="s">
+      <c r="C108" s="53"/>
+      <c r="D108" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="62"/>
+      <c r="E108" s="58"/>
       <c r="F108" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G108" s="61"/>
-      <c r="H108" s="65"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="59"/>
     </row>
     <row r="109" spans="2:8" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="41"/>
-      <c r="D109" s="49" t="s">
+      <c r="C109" s="45"/>
+      <c r="D109" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E109" s="50"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="51"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B110" s="46"/>
-      <c r="C110" s="47"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="48"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="37"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B111" s="52" t="s">
+      <c r="B111" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-      <c r="H111" s="54"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="40"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B112" s="52" t="s">
+      <c r="B112" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
-      <c r="H112" s="54"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="40"/>
     </row>
     <row r="113" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B113" s="58"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="60"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="51"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B114" s="7" t="s">
@@ -2640,116 +2746,58 @@
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B120" s="46"/>
-      <c r="C120" s="47"/>
-      <c r="D120" s="47"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="48"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="37"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B121" s="52" t="s">
+      <c r="B121" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="54"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="40"/>
     </row>
     <row r="122" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B122" s="55"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="57"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H122"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B101:H102"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B81:H82"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="G25:H25"/>
@@ -2770,28 +2818,86 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H82"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H102"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H122"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2805,8 +2911,8 @@
   </sheetPr>
   <dimension ref="B3:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2820,154 +2926,156 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="42">
+      <c r="C5" s="74"/>
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="64"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" ht="42.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="B11" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:8" ht="21.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
@@ -2980,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>3</v>
@@ -2996,85 +3104,135 @@
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="6">
         <v>5</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
+      <c r="B22" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="25" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="13"/>
@@ -3086,128 +3244,136 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="42">
+      <c r="C26" s="74"/>
+      <c r="D26" s="62">
         <v>2</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="63"/>
+      <c r="G26" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="67"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="67"/>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="67"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="65"/>
+      <c r="G29" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="69"/>
+      <c r="D30" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="B32" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="B33" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="B34" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="7" t="s">
@@ -3220,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>3</v>
@@ -3236,85 +3402,135 @@
       <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="3">
         <v>3</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="3">
         <v>4</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="C40" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="B43" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="46" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="13"/>
@@ -3326,128 +3542,134 @@
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="42">
+      <c r="C47" s="74"/>
+      <c r="D47" s="62">
         <v>3</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="63"/>
+      <c r="G47" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="64"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="67"/>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="64"/>
+      <c r="G48" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="56"/>
     </row>
     <row r="49" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="67"/>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="64"/>
+      <c r="G49" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="56"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="67"/>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="62"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="65"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="2:8" ht="42.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="49" t="s">
+      <c r="C51" s="69"/>
+      <c r="D51" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
     </row>
     <row r="52" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="72"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="60"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="7" t="s">
@@ -3528,51 +3750,71 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="48"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="54"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="40"/>
     </row>
     <row r="65" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="55"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="57"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B64:H65"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="G48:H48"/>
@@ -3588,43 +3830,24 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B64:H65"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3635,7 +3858,7 @@
   </sheetPr>
   <dimension ref="B3:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:H9"/>
     </sheetView>
   </sheetViews>
@@ -3650,148 +3873,148 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="42">
+      <c r="C5" s="81"/>
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="63"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="77"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="76" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="77"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="76" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="77"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="20" t="s">
@@ -3872,33 +4095,33 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="25" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="13"/>
@@ -3910,128 +4133,128 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="42">
+      <c r="C26" s="81"/>
+      <c r="D26" s="62">
         <v>2</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="76" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="77"/>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="76" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="77"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="65"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="79"/>
+      <c r="D30" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="20" t="s">
@@ -4112,36 +4335,68 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="B43:H44"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
@@ -4154,38 +4409,6 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4213,148 +4436,148 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="42">
+      <c r="C5" s="88"/>
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="63"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="83" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="84"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="83" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="84"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="83" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="84"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="20" t="s">
@@ -4435,33 +4658,33 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="25" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="13"/>
@@ -4473,128 +4696,128 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="42">
+      <c r="C26" s="88"/>
+      <c r="D26" s="62">
         <v>2</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="83" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="84"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="83" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="84"/>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="83" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="84"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="65"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="86"/>
+      <c r="D30" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="20" t="s">
@@ -4675,36 +4898,68 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="B43:H44"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
@@ -4717,38 +4972,6 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4788,137 +5011,137 @@
       <c r="H3" s="90"/>
     </row>
     <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="42">
+      <c r="C5" s="74"/>
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="63"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="20" t="s">
@@ -4999,33 +5222,33 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="25" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="13"/>
@@ -5037,128 +5260,128 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="42">
+      <c r="C26" s="74"/>
+      <c r="D26" s="62">
         <v>2</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="67"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="67"/>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="67"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="65"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="69"/>
+      <c r="D30" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="20" t="s">
@@ -5239,36 +5462,68 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="B43:H44"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
@@ -5281,38 +5536,6 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5340,148 +5563,148 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="42">
+      <c r="C5" s="96"/>
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="63"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="91" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="92"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="91" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="92"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="91" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
@@ -5562,33 +5785,33 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="25" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="13"/>
@@ -5600,128 +5823,128 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="42">
+      <c r="C26" s="96"/>
+      <c r="D26" s="62">
         <v>2</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="91" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="92"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="91" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="92"/>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="91" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="92"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="65"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="94"/>
+      <c r="D30" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="29" t="s">
@@ -5802,36 +6025,68 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="B43:H44"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
@@ -5844,38 +6099,6 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5903,148 +6126,148 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="42">
+      <c r="C5" s="103"/>
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="63"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="101"/>
+      <c r="D6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="2:8" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
@@ -6125,33 +6348,33 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="25" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="13"/>
@@ -6163,128 +6386,128 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="42">
+      <c r="C26" s="103"/>
+      <c r="D26" s="62">
         <v>2</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="101"/>
+      <c r="D27" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="44" t="s">
+      <c r="C28" s="101"/>
+      <c r="D28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="61" t="s">
+      <c r="C29" s="101"/>
+      <c r="D29" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="65"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="99"/>
+      <c r="D30" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="29" t="s">
@@ -6365,33 +6588,33 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="46" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="13"/>
@@ -6403,128 +6626,128 @@
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="102"/>
-      <c r="D47" s="42">
+      <c r="C47" s="103"/>
+      <c r="D47" s="62">
         <v>3</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="63"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="64"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="44" t="s">
+      <c r="C48" s="101"/>
+      <c r="D48" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="64"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="56"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="44" t="s">
+      <c r="C49" s="101"/>
+      <c r="D49" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="64"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="56"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="61" t="s">
+      <c r="C50" s="101"/>
+      <c r="D50" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="62"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="65"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="2:8" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="103" t="s">
+      <c r="B51" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="49" t="s">
+      <c r="C51" s="99"/>
+      <c r="D51" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
     </row>
     <row r="52" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="72"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="60"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="29" t="s">
@@ -6605,57 +6828,68 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="48"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="54"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="40"/>
     </row>
     <row r="65" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="55"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="57"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H65"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="B43:H44"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
@@ -6668,38 +6902,27 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H65"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Testing Plan/Test results.xlsx
+++ b/Testing Plan/Test results.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21421"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_6672358B34249DFB210DDD518A9D49222D27F312" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\temp_capstone\capstone2018\Testing Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16418" tabRatio="753" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Overview" sheetId="9" r:id="rId1"/>
@@ -16,14 +20,8 @@
     <sheet name="Power Unit" sheetId="6" r:id="rId6"/>
     <sheet name="Data Collection" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="214">
   <si>
     <t>Testing Unit</t>
   </si>
@@ -626,13 +624,61 @@
   </si>
   <si>
     <t>Threads are being used to simultaneously read input from multiple devices. Ensure that no conflicts occur and data is not missed/high priority data is handled first by performing a timing test</t>
+  </si>
+  <si>
+    <t>March 3rd, 2019</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Xbees are properly connected to microcontroller(sending)and USB serial(receiving). Both microcontrollers are powered up by laptops via USB connections</t>
+  </si>
+  <si>
+    <t>Test Tools: Keil uVision5, legacy XCTU,Microcontroller-STM32f100, Working Vehicle</t>
+  </si>
+  <si>
+    <t>Connect Xbees to their respective microcontrollers</t>
+  </si>
+  <si>
+    <t>Connect USB serial and launch legacy XCTU</t>
+  </si>
+  <si>
+    <t>Power light on</t>
+  </si>
+  <si>
+    <t>Properly place testing unit onto the vehicle</t>
+  </si>
+  <si>
+    <t>Start the car and run the test</t>
+  </si>
+  <si>
+    <t>Verify the receiving with sent data</t>
+  </si>
+  <si>
+    <t>Pre-Conditions:  Raspbeery Pi 3 connected to Xbee for receiving data, Microcontroller connected to second xbee for sending data</t>
+  </si>
+  <si>
+    <t>Test Tools: Raspberry Pi, Microcontrollers</t>
+  </si>
+  <si>
+    <t>Connect xbees to microcontrollers</t>
+  </si>
+  <si>
+    <t>Connect receiving xbee to Raspberry</t>
+  </si>
+  <si>
+    <t>Request simultaneous sends</t>
+  </si>
+  <si>
+    <t>Verify received data with sent data</t>
+  </si>
+  <si>
+    <t>25ft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -750,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1240,11 +1286,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1304,6 +1387,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,134 +1406,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1610,7 +1736,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D2E429-1B56-401C-8559-15D8C2163699}"/>
@@ -1647,19 +1773,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78E77C1-25EF-46A7-A416-18A4A9FFAD60}"/>
@@ -1678,8 +1804,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9877425" y="8410575"/>
-          <a:ext cx="3781425" cy="4829175"/>
+          <a:off x="11404600" y="6581775"/>
+          <a:ext cx="4314825" cy="5045075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1987,20 +2113,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4F7EA4-6301-42B8-815E-4573F4282FF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{791CC1C1-C71C-5D31-A8B5-B5F8C023C947}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2016,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -2032,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -2059,17 +2185,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -2080,168 +2206,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:H105"/>
+  <dimension ref="B3:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.46484375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.46484375" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="9" max="1025" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="45" customHeight="1">
-      <c r="B3" s="91" t="s">
+    <row r="3" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-    </row>
-    <row r="4" spans="2:8" ht="14.65">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="2:8" ht="16.899999999999999" customHeight="1">
-      <c r="B5" s="54" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59">
         <v>1</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="2:8" ht="14.45" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="2:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="2:8" ht="13.35" customHeight="1">
-      <c r="B8" s="47" t="s">
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="47.45" customHeight="1">
-      <c r="B9" s="50" t="s">
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="2:8" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B11" s="52" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="2:8" ht="28.9" customHeight="1">
-      <c r="B12" s="52" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12" spans="2:8" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.65">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
@@ -2264,7 +2390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="60">
+    <row r="15" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B15" s="7">
         <v>1</v>
       </c>
@@ -2277,7 +2403,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="2:8" ht="45">
+    <row r="16" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B16" s="7">
         <v>2</v>
       </c>
@@ -2290,7 +2416,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" ht="15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="7">
         <v>3</v>
       </c>
@@ -2303,7 +2429,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" ht="30">
+    <row r="18" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B18" s="7">
         <v>4</v>
       </c>
@@ -2322,7 +2448,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" ht="14.65">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
         <v>5</v>
       </c>
@@ -2333,36 +2459,36 @@
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="46" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="2:8" ht="15">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="24" spans="2:8" ht="15">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -2371,124 +2497,124 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B25" s="68" t="s">
+    <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="65">
+      <c r="C25" s="89"/>
+      <c r="D25" s="60">
         <v>2</v>
       </c>
-      <c r="E25" s="67"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="66"/>
-    </row>
-    <row r="26" spans="2:8" ht="15">
-      <c r="B26" s="63" t="s">
+      <c r="H25" s="61"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="61" t="s">
+      <c r="C26" s="68"/>
+      <c r="D26" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1">
-      <c r="B27" s="63" t="s">
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="61" t="s">
+      <c r="C27" s="68"/>
+      <c r="D27" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="59" t="s">
+      <c r="G27" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="60"/>
-    </row>
-    <row r="28" spans="2:8" ht="15">
-      <c r="B28" s="63" t="s">
+      <c r="H27" s="64"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="79" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="80"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="82"/>
-    </row>
-    <row r="29" spans="2:8" ht="40.35" customHeight="1">
-      <c r="B29" s="83" t="s">
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="2:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
-    </row>
-    <row r="30" spans="2:8" ht="15">
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
-    </row>
-    <row r="31" spans="2:8" ht="21" customHeight="1">
-      <c r="B31" s="73" t="s">
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
+    </row>
+    <row r="31" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
-    </row>
-    <row r="32" spans="2:8" ht="22.35" customHeight="1">
-      <c r="B32" s="73" t="s">
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="32" spans="2:8" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-    </row>
-    <row r="33" spans="2:8" ht="15">
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-    </row>
-    <row r="34" spans="2:8" ht="15">
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2511,7 +2637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="30">
+    <row r="35" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B35" s="7">
         <v>1</v>
       </c>
@@ -2524,7 +2650,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="2:8" ht="30">
+    <row r="36" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B36" s="7">
         <v>2</v>
       </c>
@@ -2537,7 +2663,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="2:8" ht="15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="7">
         <v>3</v>
       </c>
@@ -2550,7 +2676,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="2:8" ht="30">
+    <row r="38" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B38" s="7">
         <v>4</v>
       </c>
@@ -2565,7 +2691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="10">
         <v>5</v>
       </c>
@@ -2578,36 +2704,36 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="72"/>
-    </row>
-    <row r="41" spans="2:8" ht="15">
-      <c r="B41" s="73" t="s">
+    <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="69"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
-    </row>
-    <row r="42" spans="2:8" ht="14.65" customHeight="1">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="78"/>
-    </row>
-    <row r="44" spans="2:8" ht="15">
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+    </row>
+    <row r="42" spans="2:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="75"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="77"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2616,120 +2742,120 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B45" s="68" t="s">
+    <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="65">
+      <c r="C45" s="89"/>
+      <c r="D45" s="60">
         <v>3</v>
       </c>
-      <c r="E45" s="67"/>
+      <c r="E45" s="90"/>
       <c r="F45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="65" t="s">
+      <c r="G45" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="66"/>
-    </row>
-    <row r="46" spans="2:8" ht="15">
-      <c r="B46" s="63" t="s">
+      <c r="H45" s="61"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B46" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="61" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="62"/>
+      <c r="E46" s="66"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="60"/>
-    </row>
-    <row r="47" spans="2:8" ht="15">
-      <c r="B47" s="63" t="s">
+      <c r="G46" s="63"/>
+      <c r="H46" s="64"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B47" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="68"/>
+      <c r="D47" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="62"/>
+      <c r="E47" s="66"/>
       <c r="F47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="59"/>
-      <c r="H47" s="60"/>
-    </row>
-    <row r="48" spans="2:8" ht="15">
-      <c r="B48" s="63" t="s">
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="79" t="s">
+      <c r="C48" s="68"/>
+      <c r="D48" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="80"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
-    </row>
-    <row r="49" spans="2:8" ht="39" customHeight="1">
-      <c r="B49" s="83" t="s">
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
+    </row>
+    <row r="49" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="85" t="s">
+      <c r="C49" s="81"/>
+      <c r="D49" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="87"/>
-    </row>
-    <row r="50" spans="2:8" ht="15">
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="72"/>
-    </row>
-    <row r="51" spans="2:8" ht="15">
-      <c r="B51" s="73" t="s">
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="84"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B50" s="69"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="71"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B51" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="75"/>
-    </row>
-    <row r="52" spans="2:8" ht="15">
-      <c r="B52" s="73" t="s">
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B52" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="75"/>
-    </row>
-    <row r="53" spans="2:8" ht="15">
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="90"/>
-    </row>
-    <row r="54" spans="2:8" ht="15">
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="87"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B54" s="4" t="s">
         <v>35</v>
       </c>
@@ -2752,7 +2878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B55" s="7">
         <v>1</v>
       </c>
@@ -2763,7 +2889,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="2:8" ht="15">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B56" s="7">
         <v>2</v>
       </c>
@@ -2774,7 +2900,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="2:8" ht="15">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="7">
         <v>3</v>
       </c>
@@ -2785,7 +2911,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="2:8" ht="15">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" s="7">
         <v>4</v>
       </c>
@@ -2796,7 +2922,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" ht="15">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B59" s="10">
         <v>5</v>
       </c>
@@ -2807,38 +2933,36 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B60" s="70"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="72"/>
-    </row>
-    <row r="61" spans="2:8" ht="15">
-      <c r="B61" s="73" t="s">
+    <row r="60" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="69"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="71"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B61" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="75"/>
-    </row>
-    <row r="62" spans="2:8" ht="14.65" customHeight="1">
-      <c r="B62" s="76"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="78"/>
-    </row>
-    <row r="63" spans="2:8" ht="15"/>
-    <row r="64" spans="2:8" ht="15"/>
-    <row r="65" spans="2:8" ht="15">
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="74"/>
+    </row>
+    <row r="62" spans="2:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="77"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -2847,120 +2971,120 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B66" s="54" t="s">
+    <row r="66" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55">
+      <c r="C66" s="58"/>
+      <c r="D66" s="59">
         <v>4</v>
       </c>
-      <c r="E66" s="55"/>
+      <c r="E66" s="59"/>
       <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="65" t="s">
+      <c r="G66" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="66"/>
-    </row>
-    <row r="67" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B67" s="47" t="s">
+      <c r="H66" s="61"/>
+    </row>
+    <row r="67" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="57" t="s">
+      <c r="C67" s="50"/>
+      <c r="D67" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="57"/>
+      <c r="E67" s="62"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="60"/>
-    </row>
-    <row r="68" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B68" s="47" t="s">
+      <c r="G67" s="63"/>
+      <c r="H67" s="64"/>
+    </row>
+    <row r="68" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="57" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="57"/>
+      <c r="E68" s="62"/>
       <c r="F68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G68" s="59"/>
-      <c r="H68" s="60"/>
-    </row>
-    <row r="69" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B69" s="47" t="s">
+      <c r="G68" s="63"/>
+      <c r="H68" s="64"/>
+    </row>
+    <row r="69" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="48" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="48"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G69" s="81"/>
-      <c r="H69" s="82"/>
-    </row>
-    <row r="70" spans="2:8" ht="30" customHeight="1">
-      <c r="B70" s="50" t="s">
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
+    </row>
+    <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="51" t="s">
+      <c r="C70" s="54"/>
+      <c r="D70" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="52" t="s">
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B72" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="52" t="s">
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B73" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-    </row>
-    <row r="74" spans="2:8" ht="14.65">
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B75" s="4" t="s">
         <v>35</v>
       </c>
@@ -2983,7 +3107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B76" s="7">
         <v>1</v>
       </c>
@@ -2994,7 +3118,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B77" s="7">
         <v>2</v>
       </c>
@@ -3005,7 +3129,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B78" s="7">
         <v>3</v>
       </c>
@@ -3016,7 +3140,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B79" s="7">
         <v>4</v>
       </c>
@@ -3027,7 +3151,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="2:8" ht="14.65">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B80" s="10">
         <v>5</v>
       </c>
@@ -3038,80 +3162,59 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="46" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B82" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.65">
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-    </row>
-    <row r="84" spans="2:8" ht="15"/>
-    <row r="85" spans="2:8" ht="15"/>
-    <row r="86" spans="2:8" ht="15"/>
-    <row r="87" spans="2:8" ht="15"/>
-    <row r="88" spans="2:8" ht="15"/>
-    <row r="89" spans="2:8" ht="15"/>
-    <row r="90" spans="2:8" ht="37.9" customHeight="1"/>
-    <row r="91" spans="2:8" ht="15"/>
-    <row r="92" spans="2:8" ht="15"/>
-    <row r="93" spans="2:8" ht="15"/>
-    <row r="94" spans="2:8" ht="15"/>
-    <row r="95" spans="2:8" ht="15"/>
-    <row r="96" spans="2:8" ht="15"/>
-    <row r="97" ht="15"/>
-    <row r="98" ht="15"/>
-    <row r="99" ht="15"/>
-    <row r="100" ht="15"/>
-    <row r="101" ht="15"/>
-    <row r="102" ht="15"/>
-    <row r="103" ht="15"/>
-    <row r="104" ht="15"/>
-    <row r="105" ht="15"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+    </row>
+    <row r="90" spans="2:8" ht="38" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
@@ -3122,6 +3225,12 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H42"/>
@@ -3134,12 +3243,6 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="G68:H68"/>
@@ -3181,177 +3284,177 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B3:H66"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="D9" sqref="D9:H9"/>
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="1" max="2" width="8.46484375" customWidth="1"/>
+    <col min="3" max="3" width="41.796875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="1025" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.5">
-      <c r="B3" s="96" t="s">
+    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-    </row>
-    <row r="4" spans="2:8" ht="14.65">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="95" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="55">
+      <c r="C5" s="110"/>
+      <c r="D5" s="59">
         <v>1</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="93" t="s">
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="93" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="93" t="s">
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="108"/>
+      <c r="D8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B9" s="94" t="s">
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:8" ht="14.65">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="92" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="52" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.65">
-      <c r="B13" s="46" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="2:8" ht="14.65">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="2:8" ht="21.75" customHeight="1">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3374,7 +3477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="7">
         <v>1</v>
       </c>
@@ -3387,7 +3490,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -3400,7 +3503,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -3413,7 +3516,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" ht="30">
+    <row r="19" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B19" s="7">
         <v>4</v>
       </c>
@@ -3428,7 +3531,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" ht="15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" s="7">
         <v>5</v>
       </c>
@@ -3446,7 +3549,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:8" ht="45">
+    <row r="21" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B21" s="10">
         <v>6</v>
       </c>
@@ -3464,36 +3567,36 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="2:8" ht="15">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="46" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="2:8" ht="14.65">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="26" spans="2:8" ht="14.65">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3502,135 +3605,135 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="95" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="55">
+      <c r="C27" s="110"/>
+      <c r="D27" s="59">
         <v>2</v>
       </c>
-      <c r="E27" s="55"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="93" t="s">
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="57" t="s">
+      <c r="C28" s="108"/>
+      <c r="D28" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="93" t="s">
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="57" t="s">
+      <c r="C29" s="108"/>
+      <c r="D29" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="57"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="58"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="93" t="s">
+      <c r="H29" s="94"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="48" t="s">
+      <c r="C30" s="108"/>
+      <c r="D30" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="2:8" ht="30" customHeight="1">
-      <c r="B31" s="94" t="s">
+      <c r="H30" s="91"/>
+    </row>
+    <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="109"/>
+      <c r="D31" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="2:8" ht="14.65">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="92" t="s">
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="52" t="s">
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-    </row>
-    <row r="35" spans="2:8" ht="14.65">
-      <c r="B35" s="46" t="s">
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="2:8" ht="14.65">
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
@@ -3653,7 +3756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="7">
         <v>1</v>
       </c>
@@ -3666,7 +3769,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="2:8" ht="15">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="7">
         <v>2</v>
       </c>
@@ -3679,7 +3782,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="2:8" ht="15">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="7">
         <v>3</v>
       </c>
@@ -3692,7 +3795,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="2:8" ht="30">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" s="7">
         <v>4</v>
       </c>
@@ -3713,7 +3816,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="2:8" ht="30">
+    <row r="42" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B42" s="10">
         <v>5</v>
       </c>
@@ -3732,36 +3835,36 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="46" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" spans="2:8" ht="14.65">
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-    </row>
-    <row r="47" spans="2:8" ht="14.65">
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+    </row>
+    <row r="47" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -3770,131 +3873,135 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="95" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="55">
+      <c r="C48" s="106"/>
+      <c r="D48" s="60">
         <v>3</v>
       </c>
-      <c r="E48" s="55"/>
+      <c r="E48" s="90"/>
       <c r="F48" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="56" t="s">
+      <c r="G48" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="56"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="93" t="s">
+      <c r="H48" s="61"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B49" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="57" t="s">
+      <c r="C49" s="102"/>
+      <c r="D49" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="57"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-    </row>
-    <row r="50" spans="2:8" ht="16.899999999999999" customHeight="1">
-      <c r="B50" s="93" t="s">
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
+    </row>
+    <row r="50" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="57" t="s">
+      <c r="C50" s="102"/>
+      <c r="D50" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="57"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="93" t="s">
+      <c r="G50" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="64"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B51" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="48" t="s">
+      <c r="C51" s="102"/>
+      <c r="D51" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="48"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-    </row>
-    <row r="52" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B52" s="94" t="s">
+      <c r="G51" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="53"/>
+    </row>
+    <row r="52" spans="2:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="51" t="s">
+      <c r="C52" s="104"/>
+      <c r="D52" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-    </row>
-    <row r="53" spans="2:8" ht="14.65">
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-    </row>
-    <row r="56" spans="2:8" ht="14.65">
-      <c r="B56" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-    </row>
-    <row r="57" spans="2:8" ht="14.65">
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
+    </row>
+    <row r="53" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="95"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="97"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B54" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="100"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B55" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="74"/>
+    </row>
+    <row r="56" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="77"/>
+    </row>
+    <row r="57" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="95"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="97"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
         <v>35</v>
       </c>
@@ -3917,89 +4024,113 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B59" s="7">
         <v>1</v>
       </c>
-      <c r="C59" s="8"/>
+      <c r="C59" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" s="7">
         <v>2</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B61" s="7">
         <v>3</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B62" s="7">
         <v>4</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="45" t="s">
+        <v>205</v>
+      </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="2:8" ht="14.65">
+    <row r="63" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="10">
         <v>5</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="C63" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="46" t="s">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B64" s="69"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="71"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B65" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-    </row>
-    <row r="66" spans="2:8" ht="14.65">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="74"/>
+    </row>
+    <row r="66" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="65">
@@ -4075,173 +4206,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
   <dimension ref="B3:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="1" max="2" width="8.46484375" customWidth="1"/>
+    <col min="3" max="3" width="31.46484375" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" customWidth="1"/>
+    <col min="5" max="5" width="21.796875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.46484375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="9" max="1025" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.5">
-      <c r="B3" s="100" t="s">
+    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-    </row>
-    <row r="4" spans="2:8" ht="14.65">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="99" t="s">
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="55">
+      <c r="C5" s="114"/>
+      <c r="D5" s="59">
         <v>1</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="97" t="s">
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="112"/>
+      <c r="D6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="97" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="97" t="s">
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="112"/>
+      <c r="D8" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="60" customHeight="1">
-      <c r="B9" s="98" t="s">
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:8" ht="14.65">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="92" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="52" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.65">
-      <c r="B13" s="46" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="2:8" ht="14.65">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="21" t="s">
         <v>35</v>
       </c>
@@ -4264,8 +4395,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="60">
-      <c r="B16" s="7">
+    <row r="16" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B16" s="46">
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -4277,8 +4408,8 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" ht="45">
-      <c r="B17" s="7">
+    <row r="17" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B17" s="46">
         <v>2</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -4290,8 +4421,8 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" ht="30">
-      <c r="B18" s="7">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="46">
         <v>3</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -4303,8 +4434,8 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" ht="30">
-      <c r="B19" s="7">
+    <row r="19" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="46">
         <v>4</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -4316,8 +4447,8 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" ht="75">
-      <c r="B20" s="10">
+    <row r="20" spans="2:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="B20" s="47">
         <v>5</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -4329,36 +4460,36 @@
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="46" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="2:8" ht="14.65">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.65">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -4367,135 +4498,135 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="99" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="55">
+      <c r="C26" s="114"/>
+      <c r="D26" s="59">
         <v>2</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="97" t="s">
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="112"/>
+      <c r="D27" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="97" t="s">
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="57" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="58"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="97" t="s">
+      <c r="H28" s="94"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="112"/>
+      <c r="D29" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" spans="2:8" ht="34.9" customHeight="1">
-      <c r="B30" s="98" t="s">
+      <c r="H29" s="91"/>
+    </row>
+    <row r="30" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="113"/>
+      <c r="D30" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="2:8" ht="14.65">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="92" t="s">
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="52" t="s">
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="2:8" ht="14.65">
-      <c r="B34" s="46" t="s">
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="2:8" ht="14.65">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="21" t="s">
         <v>35</v>
       </c>
@@ -4518,8 +4649,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="30">
-      <c r="B37" s="7">
+    <row r="37" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B37" s="46">
         <v>1</v>
       </c>
       <c r="C37" s="38" t="s">
@@ -4531,8 +4662,8 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="2:8" ht="30">
-      <c r="B38" s="7">
+    <row r="38" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B38" s="46">
         <v>2</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -4546,8 +4677,8 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="2:8" ht="70.5" customHeight="1">
-      <c r="B39" s="7">
+    <row r="39" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="46">
         <v>3</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4567,8 +4698,8 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="7">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B40" s="46">
         <v>4</v>
       </c>
       <c r="C40" s="8"/>
@@ -4578,8 +4709,8 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="2:8" ht="14.65">
-      <c r="B41" s="10">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="47">
         <v>5</v>
       </c>
       <c r="C41" s="11"/>
@@ -4589,34 +4720,34 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="46" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="2:8" ht="14.65">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -4672,175 +4803,175 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B3:H66"/>
+  <dimension ref="B3:H72"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="2" width="8.46484375" customWidth="1"/>
+    <col min="3" max="3" width="22.46484375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.1328125" customWidth="1"/>
+    <col min="9" max="1025" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.5">
-      <c r="B3" s="104" t="s">
+    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-    </row>
-    <row r="4" spans="2:8" ht="14.65">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="103" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="55">
+      <c r="C5" s="118"/>
+      <c r="D5" s="59">
         <v>1</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="101" t="s">
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="101" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="101" t="s">
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="46.9" customHeight="1">
-      <c r="B9" s="102" t="s">
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="117"/>
+      <c r="D9" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:8" ht="14.65">
-      <c r="B10" s="45" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="92" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="52" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.65">
-      <c r="B13" s="46" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="2:8" ht="14.65">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="21" t="s">
         <v>35</v>
       </c>
@@ -4863,8 +4994,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="44.1">
-      <c r="B16" s="7">
+    <row r="16" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B16" s="46">
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -4876,8 +5007,8 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" ht="22.5">
-      <c r="B17" s="7">
+    <row r="17" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="46">
         <v>2</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -4889,8 +5020,8 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" ht="33.4">
-      <c r="B18" s="7">
+    <row r="18" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B18" s="46">
         <v>3</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -4902,8 +5033,8 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" ht="22.5">
-      <c r="B19" s="7">
+    <row r="19" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="46">
         <v>4</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -4915,8 +5046,8 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" ht="65.650000000000006">
-      <c r="B20" s="10">
+    <row r="20" spans="2:8" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="47">
         <v>5</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -4928,36 +5059,36 @@
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="46" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="2:8" ht="14.65">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="25" spans="2:8" ht="15">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -4966,131 +5097,131 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B26" s="103" t="s">
+    <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="55">
+      <c r="C26" s="118"/>
+      <c r="D26" s="59">
         <v>2</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B27" s="101" t="s">
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="116"/>
+      <c r="D27" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-    </row>
-    <row r="28" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B28" s="101" t="s">
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="57" t="s">
+      <c r="C28" s="116"/>
+      <c r="D28" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-    </row>
-    <row r="29" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B29" s="101" t="s">
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+    </row>
+    <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="116"/>
+      <c r="D29" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" spans="2:8" ht="34.35" customHeight="1">
-      <c r="B30" s="102" t="s">
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+    </row>
+    <row r="30" spans="2:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="117"/>
+      <c r="D30" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="2:8" ht="14.65">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="92" t="s">
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="52" t="s">
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="2:8" ht="14.65">
-      <c r="B34" s="46" t="s">
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="2:8" ht="14.65">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="21" t="s">
         <v>35</v>
       </c>
@@ -5113,8 +5244,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="7">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B37" s="46">
         <v>1</v>
       </c>
       <c r="C37" s="8"/>
@@ -5124,8 +5255,8 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="7">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B38" s="46">
         <v>2</v>
       </c>
       <c r="C38" s="8"/>
@@ -5135,8 +5266,8 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="7">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B39" s="46">
         <v>3</v>
       </c>
       <c r="C39" s="8"/>
@@ -5146,8 +5277,8 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="7">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B40" s="46">
         <v>4</v>
       </c>
       <c r="C40" s="8"/>
@@ -5157,8 +5288,8 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="2:8" ht="14.65">
-      <c r="B41" s="10">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="47">
         <v>5</v>
       </c>
       <c r="C41" s="11"/>
@@ -5168,37 +5299,36 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="46" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="2:8" ht="14.65">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" spans="2:8" ht="15"/>
-    <row r="46" spans="2:8" ht="15">
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -5207,133 +5337,133 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="2:8" ht="15">
-      <c r="B47" s="103" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B47" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="55">
+      <c r="C47" s="118"/>
+      <c r="D47" s="59">
         <v>3</v>
       </c>
-      <c r="E47" s="55"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="56"/>
-    </row>
-    <row r="48" spans="2:8" ht="15">
-      <c r="B48" s="101" t="s">
+      <c r="H47" s="93"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="57" t="s">
+      <c r="C48" s="116"/>
+      <c r="D48" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="57"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="27"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-    </row>
-    <row r="49" spans="2:8" ht="15">
-      <c r="B49" s="101" t="s">
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B49" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="57" t="s">
+      <c r="C49" s="116"/>
+      <c r="D49" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="57"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="58" t="s">
+      <c r="G49" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="58"/>
-    </row>
-    <row r="50" spans="2:8" ht="15">
-      <c r="B50" s="101" t="s">
+      <c r="H49" s="94"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B50" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="48" t="s">
+      <c r="C50" s="116"/>
+      <c r="D50" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E50" s="48"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-    </row>
-    <row r="51" spans="2:8" ht="15">
-      <c r="B51" s="102" t="s">
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B51" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="51" t="s">
+      <c r="C51" s="117"/>
+      <c r="D51" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-    </row>
-    <row r="52" spans="2:8" ht="15">
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-    </row>
-    <row r="53" spans="2:8" ht="15">
-      <c r="B53" s="92" t="s">
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B53" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-    </row>
-    <row r="54" spans="2:8" ht="15">
-      <c r="B54" s="52" t="s">
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B54" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-    </row>
-    <row r="55" spans="2:8" ht="15">
-      <c r="B55" s="46" t="s">
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B55" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-    </row>
-    <row r="56" spans="2:8" ht="15">
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-    </row>
-    <row r="57" spans="2:8" ht="15">
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="21" t="s">
         <v>35</v>
       </c>
@@ -5356,8 +5486,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="45">
-      <c r="B58" s="7">
+    <row r="58" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B58" s="46">
         <v>1</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -5369,8 +5499,8 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" ht="60">
-      <c r="B59" s="7">
+    <row r="59" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B59" s="46">
         <v>2</v>
       </c>
       <c r="C59" s="38" t="s">
@@ -5382,8 +5512,8 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" ht="60">
-      <c r="B60" s="7">
+    <row r="60" spans="2:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="B60" s="46">
         <v>3</v>
       </c>
       <c r="C60" s="38" t="s">
@@ -5395,8 +5525,8 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="2:8" ht="75">
-      <c r="B61" s="7">
+    <row r="61" spans="2:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="B61" s="46">
         <v>4</v>
       </c>
       <c r="C61" s="38" t="s">
@@ -5416,10 +5546,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15">
-      <c r="B62" s="10">
-        <v>5</v>
-      </c>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B62" s="47"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -5427,36 +5555,40 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="2:8" ht="15">
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-    </row>
-    <row r="64" spans="2:8" ht="15">
-      <c r="B64" s="46" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B64" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-    </row>
-    <row r="65" spans="2:8" ht="15">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-    </row>
-    <row r="66" spans="2:8" ht="15"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="65">
     <mergeCell ref="B3:H3"/>
@@ -5531,175 +5663,175 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF74E9F2"/>
   </sheetPr>
   <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
-      <selection activeCell="D9" sqref="D9:H9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="2" width="8.46484375" customWidth="1"/>
+    <col min="3" max="3" width="22.46484375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.1328125" customWidth="1"/>
+    <col min="9" max="1025" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.5">
-      <c r="B3" s="108" t="s">
+    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-    </row>
-    <row r="4" spans="2:8" ht="14.65">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="107" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="55">
+      <c r="C5" s="122"/>
+      <c r="D5" s="59">
         <v>1</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="105" t="s">
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="120"/>
+      <c r="D6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="105" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="120"/>
+      <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="105" t="s">
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="57" customHeight="1">
-      <c r="B9" s="106" t="s">
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="121"/>
+      <c r="D9" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:8" ht="14.65">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="92" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="52" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.65">
-      <c r="B13" s="46" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="2:8" ht="14.65">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="32" t="s">
         <v>35</v>
       </c>
@@ -5722,8 +5854,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1">
-      <c r="B16" s="7">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="46">
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -5741,8 +5873,8 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" ht="53.25" customHeight="1">
-      <c r="B17" s="7">
+    <row r="17" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="46">
         <v>2</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -5754,8 +5886,8 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" ht="41.25" customHeight="1">
-      <c r="B18" s="7">
+    <row r="18" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="46">
         <v>3</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -5767,8 +5899,8 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B19" s="7">
+    <row r="19" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="46">
         <v>4</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -5780,8 +5912,8 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="7">
+    <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="46">
         <v>5</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -5799,8 +5931,8 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:8" ht="75">
-      <c r="B21" s="10">
+    <row r="21" spans="2:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="B21" s="47">
         <v>6</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -5816,36 +5948,36 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="46" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="2:8" ht="14.65">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="26" spans="2:8" ht="14.65">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -5854,137 +5986,137 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="107" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="55">
+      <c r="C27" s="122"/>
+      <c r="D27" s="59">
         <v>2</v>
       </c>
-      <c r="E27" s="55"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="105" t="s">
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="57" t="s">
+      <c r="C28" s="120"/>
+      <c r="D28" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="105" t="s">
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="57" t="s">
+      <c r="C29" s="120"/>
+      <c r="D29" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="57"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="58"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="105" t="s">
+      <c r="H29" s="94"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="48" t="s">
+      <c r="C30" s="120"/>
+      <c r="D30" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="2:8" ht="34.35" customHeight="1">
-      <c r="B31" s="106" t="s">
+      <c r="H30" s="91"/>
+    </row>
+    <row r="31" spans="2:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="121"/>
+      <c r="D31" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="2:8" ht="14.65">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="92" t="s">
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="52" t="s">
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-    </row>
-    <row r="35" spans="2:8" ht="14.65">
-      <c r="B35" s="46" t="s">
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="2:8" ht="14.65">
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="32" t="s">
         <v>35</v>
       </c>
@@ -6007,8 +6139,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="63" customHeight="1">
-      <c r="B38" s="7">
+    <row r="38" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="46">
         <v>1</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -6020,8 +6152,8 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B39" s="7">
+    <row r="39" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="46">
         <v>2</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6043,10 +6175,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="7">
-        <v>3</v>
-      </c>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B40" s="46"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -6054,10 +6184,8 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="7">
-        <v>4</v>
-      </c>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="46"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -6065,10 +6193,8 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="2:8" ht="14.65">
-      <c r="B42" s="10">
-        <v>5</v>
-      </c>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B42" s="47"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -6076,34 +6202,34 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="46" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" spans="2:8" ht="14.65">
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -6158,177 +6284,177 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFE22404"/>
   </sheetPr>
-  <dimension ref="B3:H89"/>
+  <dimension ref="B3:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
-      <selection activeCell="D9" sqref="D9:H9"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="2" width="8.46484375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.1328125" customWidth="1"/>
+    <col min="9" max="1025" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.5">
-      <c r="B3" s="112" t="s">
+    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-    </row>
-    <row r="4" spans="2:8" ht="14.65">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="109" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="55">
+      <c r="C5" s="124"/>
+      <c r="D5" s="59">
         <v>1</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="110" t="s">
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="125"/>
+      <c r="D6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="36"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="110" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="110" t="s">
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="125"/>
+      <c r="D8" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="57" customHeight="1">
-      <c r="B9" s="111" t="s">
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="126"/>
+      <c r="D9" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:8" ht="14.65">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="92" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="52" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.65">
-      <c r="B13" s="46" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="2:8" ht="14.65">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="32" t="s">
         <v>35</v>
       </c>
@@ -6351,7 +6477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="45">
+    <row r="16" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B16" s="7">
         <v>1</v>
       </c>
@@ -6364,7 +6490,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" ht="30">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -6377,7 +6503,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" ht="60">
+    <row r="18" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -6396,7 +6522,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" ht="90">
+    <row r="19" spans="2:8" ht="57" x14ac:dyDescent="0.45">
       <c r="B19" s="7">
         <v>4</v>
       </c>
@@ -6415,7 +6541,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" ht="75">
+    <row r="20" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B20" s="10">
         <v>5</v>
       </c>
@@ -6434,36 +6560,36 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="46" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="2:8" ht="14.65">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.65">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -6472,131 +6598,131 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="109" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="55">
+      <c r="C26" s="124"/>
+      <c r="D26" s="59">
         <v>2</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="110" t="s">
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="110" t="s">
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="57" t="s">
+      <c r="C28" s="125"/>
+      <c r="D28" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="110" t="s">
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="125"/>
+      <c r="D29" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" spans="2:8" ht="34.35" customHeight="1">
-      <c r="B30" s="111" t="s">
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+    </row>
+    <row r="30" spans="2:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="126"/>
+      <c r="D30" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="2:8" ht="14.65">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="2:8" ht="14.65">
-      <c r="B34" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="2:8" ht="14.65">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="107" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="32" t="s">
         <v>35</v>
       </c>
@@ -6619,54 +6745,60 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="7">
         <v>1</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="7">
         <v>2</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="7">
         <v>3</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="7">
         <v>4</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="45" t="s">
+        <v>212</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="2:8" ht="14.65">
-      <c r="B41" s="10">
-        <v>5</v>
-      </c>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -6674,36 +6806,36 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="46" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="2:8" ht="14.65">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="46" spans="2:8" ht="14.65">
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -6712,131 +6844,131 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="109" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B47" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="109"/>
-      <c r="D47" s="55">
+      <c r="C47" s="124"/>
+      <c r="D47" s="59">
         <v>3</v>
       </c>
-      <c r="E47" s="55"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="56"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="110" t="s">
+      <c r="H47" s="93"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="57" t="s">
+      <c r="C48" s="125"/>
+      <c r="D48" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="57"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="110" t="s">
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B49" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="57" t="s">
+      <c r="C49" s="125"/>
+      <c r="D49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="57"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="110" t="s">
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B50" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="48" t="s">
+      <c r="C50" s="125"/>
+      <c r="D50" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="48"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-    </row>
-    <row r="51" spans="2:8" ht="34.35" customHeight="1">
-      <c r="B51" s="111" t="s">
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+    </row>
+    <row r="51" spans="2:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="51" t="s">
+      <c r="C51" s="126"/>
+      <c r="D51" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-    </row>
-    <row r="52" spans="2:8" ht="14.65">
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="92" t="s">
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B53" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="52" t="s">
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B54" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-    </row>
-    <row r="55" spans="2:8" ht="14.65">
-      <c r="B55" s="46" t="s">
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B55" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-    </row>
-    <row r="56" spans="2:8" ht="14.65">
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="32" t="s">
         <v>35</v>
       </c>
@@ -6859,7 +6991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" s="7">
         <v>1</v>
       </c>
@@ -6870,7 +7002,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B59" s="7">
         <v>2</v>
       </c>
@@ -6881,7 +7013,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" s="7">
         <v>3</v>
       </c>
@@ -6892,7 +7024,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B61" s="7">
         <v>4</v>
       </c>
@@ -6903,7 +7035,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8" ht="14.65">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B62" s="10">
         <v>5</v>
       </c>
@@ -6914,37 +7046,36 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="46" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B64" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-    </row>
-    <row r="65" spans="2:8" ht="14.65">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-    </row>
-    <row r="66" spans="2:8" ht="15"/>
-    <row r="67" spans="2:8" ht="15">
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -6953,131 +7084,131 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="2:8" ht="15">
-      <c r="B68" s="109" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B68" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="109"/>
-      <c r="D68" s="55">
+      <c r="C68" s="124"/>
+      <c r="D68" s="59">
         <v>4</v>
       </c>
-      <c r="E68" s="55"/>
+      <c r="E68" s="59"/>
       <c r="F68" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="56" t="s">
+      <c r="G68" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H68" s="56"/>
-    </row>
-    <row r="69" spans="2:8" ht="15">
-      <c r="B69" s="110" t="s">
+      <c r="H68" s="93"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B69" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="110"/>
-      <c r="D69" s="57" t="s">
+      <c r="C69" s="125"/>
+      <c r="D69" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="57"/>
+      <c r="E69" s="62"/>
       <c r="F69" s="36"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-    </row>
-    <row r="70" spans="2:8" ht="15">
-      <c r="B70" s="110" t="s">
+      <c r="G69" s="94"/>
+      <c r="H69" s="94"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B70" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="110"/>
-      <c r="D70" s="57" t="s">
+      <c r="C70" s="125"/>
+      <c r="D70" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="57"/>
+      <c r="E70" s="62"/>
       <c r="F70" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-    </row>
-    <row r="71" spans="2:8" ht="15">
-      <c r="B71" s="110" t="s">
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B71" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="110"/>
-      <c r="D71" s="48" t="s">
+      <c r="C71" s="125"/>
+      <c r="D71" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E71" s="48"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-    </row>
-    <row r="72" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B72" s="111" t="s">
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+    </row>
+    <row r="72" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="111"/>
-      <c r="D72" s="51" t="s">
+      <c r="C72" s="126"/>
+      <c r="D72" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-    </row>
-    <row r="73" spans="2:8" ht="15">
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-    </row>
-    <row r="74" spans="2:8" ht="15">
-      <c r="B74" s="92" t="s">
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B74" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-    </row>
-    <row r="75" spans="2:8" ht="15">
-      <c r="B75" s="52" t="s">
+      <c r="C74" s="107"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B75" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-    </row>
-    <row r="76" spans="2:8" ht="15">
-      <c r="B76" s="46" t="s">
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B76" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-    </row>
-    <row r="77" spans="2:8" ht="15">
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-    </row>
-    <row r="78" spans="2:8" ht="15">
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B78" s="32" t="s">
         <v>35</v>
       </c>
@@ -7100,7 +7231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B79" s="7">
         <v>1</v>
       </c>
@@ -7111,7 +7242,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="2:8" ht="15">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B80" s="7">
         <v>2</v>
       </c>
@@ -7122,7 +7253,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="2:8" ht="15">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B81" s="7">
         <v>3</v>
       </c>
@@ -7133,7 +7264,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:8" ht="15">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B82" s="7">
         <v>4</v>
       </c>
@@ -7144,7 +7275,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:8" ht="15">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B83" s="10">
         <v>5</v>
       </c>
@@ -7155,38 +7286,35 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="2:8" ht="15">
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-    </row>
-    <row r="85" spans="2:8" ht="15">
-      <c r="B85" s="46" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B85" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-    </row>
-    <row r="86" spans="2:8" ht="15">
-      <c r="B86" s="46"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-    </row>
-    <row r="87" spans="2:8" ht="15"/>
-    <row r="88" spans="2:8" ht="15"/>
-    <row r="89" spans="2:8" ht="15"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="86">
     <mergeCell ref="B3:H3"/>

--- a/Testing Plan/Test results.xlsx
+++ b/Testing Plan/Test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16418" tabRatio="753" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16418" tabRatio="753" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Overview" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="234">
   <si>
     <t>Testing Unit</t>
   </si>
@@ -671,7 +671,67 @@
     <t>Verify received data with sent data</t>
   </si>
   <si>
-    <t>25ft</t>
+    <t>Flash code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set accelerometer on a level desk </t>
+  </si>
+  <si>
+    <t>Monitor the results</t>
+  </si>
+  <si>
+    <t>Some noise expected</t>
+  </si>
+  <si>
+    <t>Post-Condition:  Filters are to be designed to eliminate the expected noise</t>
+  </si>
+  <si>
+    <t>Some noise shown</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Working code is required to run the test, test environment should have no other external factors</t>
+  </si>
+  <si>
+    <t>Iven &amp; Nat</t>
+  </si>
+  <si>
+    <t>March 3rd 2019</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: A good mounting device is required, a working vehicle</t>
+  </si>
+  <si>
+    <t>Test Tools: Car</t>
+  </si>
+  <si>
+    <t>Images capure</t>
+  </si>
+  <si>
+    <t>Images capured</t>
+  </si>
+  <si>
+    <t>Post-Condition:  Images are saved for more analysis at later date(image processing)</t>
+  </si>
+  <si>
+    <t>Met requirement</t>
+  </si>
+  <si>
+    <t>March 19,2019</t>
+  </si>
+  <si>
+    <t>All nodes were recognized and received in order</t>
+  </si>
+  <si>
+    <t>Post-Condition:  Verified that all nodes were generating same amount of data and sent over to receivers in a specific order</t>
+  </si>
+  <si>
+    <t>March 13th, 2019</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Threads and ques are used to implement the design</t>
+  </si>
+  <si>
+    <t>Components under test: Raspberry Pi 3, accelerometers, xbee</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1394,16 +1454,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1412,22 +1544,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1436,44 +1577,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1484,55 +1595,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1553,38 +1646,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,11 +1658,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1604,11 +1670,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1616,10 +1682,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,7 +1694,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,7 +1796,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2117,7 +2183,7 @@
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2213,15 +2279,15 @@
   </sheetPr>
   <dimension ref="B3:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.46484375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="19.796875" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
@@ -2231,141 +2297,141 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54">
         <v>1</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:8" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="2:8" ht="29" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
@@ -2449,9 +2515,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
-        <v>5</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2460,33 +2524,33 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" s="13"/>
@@ -2498,121 +2562,121 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="60">
+      <c r="C25" s="91"/>
+      <c r="D25" s="87">
         <v>2</v>
       </c>
-      <c r="E25" s="90"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="61"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="65" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="66"/>
+      <c r="E26" s="86"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="65" t="s">
+      <c r="C27" s="73"/>
+      <c r="D27" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="66"/>
+      <c r="E27" s="86"/>
       <c r="F27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="64"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="78" t="s">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="53"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="2:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82" t="s">
+      <c r="C29" s="79"/>
+      <c r="D29" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
     </row>
     <row r="32" spans="2:8" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="68"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="70"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
@@ -2705,33 +2769,33 @@
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="74"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="2:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="75"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="94"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="13"/>
@@ -2743,117 +2807,117 @@
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="60">
+      <c r="C45" s="91"/>
+      <c r="D45" s="87">
         <v>3</v>
       </c>
-      <c r="E45" s="90"/>
+      <c r="E45" s="89"/>
       <c r="F45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="61"/>
+      <c r="H45" s="88"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="65" t="s">
+      <c r="C46" s="73"/>
+      <c r="D46" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="66"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="64"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="65" t="s">
+      <c r="C47" s="73"/>
+      <c r="D47" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="66"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="64"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="78" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="79"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="77"/>
     </row>
     <row r="49" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="82" t="s">
+      <c r="C49" s="79"/>
+      <c r="D49" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B50" s="69"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="71"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="62"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="74"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="74"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="68"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="85"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="87"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="70"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B54" s="4" t="s">
@@ -2934,33 +2998,33 @@
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="69"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="71"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="74"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="68"/>
     </row>
     <row r="62" spans="2:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="77"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="94"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B65" s="13"/>
@@ -2972,117 +3036,121 @@
       <c r="H65" s="13"/>
     </row>
     <row r="66" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59">
+      <c r="C66" s="53"/>
+      <c r="D66" s="54">
         <v>4</v>
       </c>
-      <c r="E66" s="59"/>
+      <c r="E66" s="54"/>
       <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="60" t="s">
+      <c r="G66" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="61"/>
+      <c r="H66" s="88"/>
     </row>
     <row r="67" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="62" t="s">
+      <c r="C67" s="48"/>
+      <c r="D67" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="62"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="84"/>
     </row>
     <row r="68" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="62" t="s">
+      <c r="C68" s="48"/>
+      <c r="D68" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="62"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G68" s="63"/>
-      <c r="H68" s="64"/>
+      <c r="G68" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="84"/>
     </row>
     <row r="69" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="51" t="s">
+      <c r="C69" s="48"/>
+      <c r="D69" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="53"/>
+      <c r="G69" s="128">
+        <v>43495</v>
+      </c>
+      <c r="H69" s="77"/>
     </row>
     <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55" t="s">
+      <c r="C70" s="58"/>
+      <c r="D70" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B72" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
+      <c r="B72" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B75" s="4" t="s">
@@ -3111,7 +3179,9 @@
       <c r="B76" s="7">
         <v>1</v>
       </c>
-      <c r="C76" s="8"/>
+      <c r="C76" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -3122,7 +3192,9 @@
       <c r="B77" s="7">
         <v>2</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -3133,7 +3205,9 @@
       <c r="B78" s="7">
         <v>3</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -3144,7 +3218,9 @@
       <c r="B79" s="7">
         <v>4</v>
       </c>
-      <c r="C79" s="8"/>
+      <c r="C79" s="45" t="s">
+        <v>214</v>
+      </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -3155,66 +3231,98 @@
       <c r="B80" s="10">
         <v>5</v>
       </c>
-      <c r="C80" s="11"/>
+      <c r="C80" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="E80" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="H80" s="12"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B82" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
+      <c r="B82" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
     </row>
     <row r="90" spans="2:8" ht="38" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
@@ -3231,51 +3339,27 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H62"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3290,7 +3374,7 @@
   </sheetPr>
   <dimension ref="B3:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
@@ -3307,152 +3391,152 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="59">
+      <c r="C5" s="96"/>
+      <c r="D5" s="54">
         <v>1</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="97"/>
+      <c r="D6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
@@ -3568,33 +3652,33 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="13"/>
@@ -3606,132 +3690,132 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="59">
+      <c r="C27" s="96"/>
+      <c r="D27" s="54">
         <v>2</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="93"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="62" t="s">
+      <c r="C28" s="97"/>
+      <c r="D28" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="62" t="s">
+      <c r="C29" s="97"/>
+      <c r="D29" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="94" t="s">
+      <c r="G29" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="94"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="97"/>
+      <c r="D30" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="91" t="s">
+      <c r="G30" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="91"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="55" t="s">
+      <c r="C31" s="98"/>
+      <c r="D31" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="4" t="s">
@@ -3836,33 +3920,33 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
     </row>
     <row r="47" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="13"/>
@@ -3874,132 +3958,132 @@
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="60">
+      <c r="C48" s="101"/>
+      <c r="D48" s="87">
         <v>3</v>
       </c>
-      <c r="E48" s="90"/>
+      <c r="E48" s="89"/>
       <c r="F48" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="60" t="s">
+      <c r="G48" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="61"/>
+      <c r="H48" s="88"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B49" s="101" t="s">
+      <c r="B49" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="65" t="s">
+      <c r="C49" s="103"/>
+      <c r="D49" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="66"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="84"/>
     </row>
     <row r="50" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="102"/>
-      <c r="D50" s="65" t="s">
+      <c r="C50" s="103"/>
+      <c r="D50" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="66"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="64"/>
+      <c r="H50" s="84"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="78" t="s">
+      <c r="C51" s="103"/>
+      <c r="D51" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="79"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="H51" s="53"/>
+      <c r="H51" s="77"/>
     </row>
     <row r="52" spans="2:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="82" t="s">
+      <c r="C52" s="105"/>
+      <c r="D52" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="82"/>
     </row>
     <row r="53" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="95"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="97"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="108"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="100"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="111"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="74"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68"/>
     </row>
     <row r="56" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="77"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="94"/>
     </row>
     <row r="57" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="95"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="97"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="108"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
@@ -4104,94 +4188,36 @@
       <c r="H63" s="12"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64" s="69"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="71"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="74"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="68"/>
     </row>
     <row r="66" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="77"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:H52"/>
     <mergeCell ref="B64:H64"/>
     <mergeCell ref="B65:H66"/>
     <mergeCell ref="B53:H53"/>
@@ -4199,6 +4225,64 @@
     <mergeCell ref="B55:H55"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4213,7 +4297,7 @@
   <dimension ref="B3:H44"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4229,148 +4313,148 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="59">
+      <c r="C5" s="113"/>
+      <c r="D5" s="54">
         <v>1</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="114"/>
+      <c r="D6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="115"/>
+      <c r="D9" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="21" t="s">
@@ -4461,33 +4545,33 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
@@ -4499,132 +4583,132 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="59">
+      <c r="C26" s="113"/>
+      <c r="D26" s="54">
         <v>2</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="93"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="62" t="s">
+      <c r="C27" s="114"/>
+      <c r="D27" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="62" t="s">
+      <c r="C28" s="114"/>
+      <c r="D28" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="94" t="s">
+      <c r="G28" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="94"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="114"/>
+      <c r="D29" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="91" t="s">
+      <c r="G29" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="91"/>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="55" t="s">
+      <c r="C30" s="115"/>
+      <c r="D30" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="21" t="s">
@@ -4721,73 +4805,36 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H44"/>
     <mergeCell ref="B31:H31"/>
@@ -4795,6 +4842,43 @@
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4807,10 +4891,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B3:H72"/>
+  <dimension ref="B3:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4826,150 +4910,154 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="59">
+      <c r="C5" s="117"/>
+      <c r="D5" s="54">
         <v>1</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="118"/>
+      <c r="D6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
+      <c r="G8" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="B11" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="21" t="s">
@@ -5041,9 +5129,15 @@
         <v>134</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" ht="85.5" x14ac:dyDescent="0.45">
@@ -5055,38 +5149,42 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="B22" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
@@ -5098,128 +5196,128 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="59">
+      <c r="C26" s="117"/>
+      <c r="D26" s="54">
         <v>2</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="93"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="62" t="s">
+      <c r="C27" s="118"/>
+      <c r="D27" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="62" t="s">
+      <c r="C28" s="118"/>
+      <c r="D28" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="118"/>
+      <c r="D29" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="2:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="55" t="s">
+      <c r="C30" s="119"/>
+      <c r="D30" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="21" t="s">
@@ -5300,33 +5398,33 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="13"/>
@@ -5338,130 +5436,132 @@
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="59">
+      <c r="C47" s="117"/>
+      <c r="D47" s="54">
         <v>3</v>
       </c>
-      <c r="E47" s="59"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="93" t="s">
+      <c r="G47" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="93"/>
+      <c r="H47" s="55"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="62" t="s">
+      <c r="C48" s="118"/>
+      <c r="D48" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="62"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="27"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="62" t="s">
+      <c r="C49" s="118"/>
+      <c r="D49" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="62"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="94" t="s">
+      <c r="G49" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="94"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="51" t="s">
+      <c r="C50" s="118"/>
+      <c r="D50" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
+      <c r="G50" s="129">
+        <v>43541</v>
+      </c>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="117" t="s">
+      <c r="B51" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="117"/>
-      <c r="D51" s="55" t="s">
+      <c r="C51" s="119"/>
+      <c r="D51" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="21" t="s">
@@ -5556,99 +5656,36 @@
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="H72" t="s">
-        <v>213</v>
-      </c>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="B64:H65"/>
     <mergeCell ref="B52:H52"/>
@@ -5656,6 +5693,64 @@
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="B55:H55"/>
     <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5669,7 +5764,7 @@
   </sheetPr>
   <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -5686,150 +5781,150 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="59">
+      <c r="C5" s="121"/>
+      <c r="D5" s="54">
         <v>1</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="122"/>
+      <c r="D6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="122"/>
+      <c r="D8" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="123"/>
+      <c r="D9" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="32" t="s">
@@ -5949,33 +6044,33 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="13"/>
@@ -5987,134 +6082,134 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="59">
+      <c r="C27" s="121"/>
+      <c r="D27" s="54">
         <v>2</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="93"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="62" t="s">
+      <c r="C28" s="122"/>
+      <c r="D28" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="62" t="s">
+      <c r="C29" s="122"/>
+      <c r="D29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="94" t="s">
+      <c r="G29" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="94"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="122"/>
+      <c r="D30" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="91" t="s">
+      <c r="G30" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="91"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="2:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="55" t="s">
+      <c r="C31" s="123"/>
+      <c r="D31" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="32" t="s">
@@ -6203,73 +6298,36 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:H31"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B44:H45"/>
     <mergeCell ref="B32:H32"/>
@@ -6277,6 +6335,43 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6290,8 +6385,8 @@
   </sheetPr>
   <dimension ref="B3:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6300,159 +6395,159 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="42.86328125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="30.1328125" customWidth="1"/>
     <col min="9" max="1025" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="59">
+      <c r="C5" s="125"/>
+      <c r="D5" s="54">
         <v>1</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="126"/>
+      <c r="D6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="36"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="126"/>
+      <c r="D8" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="127"/>
+      <c r="D9" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="32" t="s">
@@ -6561,33 +6656,33 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
@@ -6599,128 +6694,132 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="59">
+      <c r="C26" s="125"/>
+      <c r="D26" s="54">
         <v>2</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="93"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="62" t="s">
+      <c r="C27" s="126"/>
+      <c r="D27" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="62" t="s">
+      <c r="C28" s="126"/>
+      <c r="D28" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
+      <c r="G28" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="126"/>
+      <c r="D29" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="2:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="55" t="s">
+      <c r="C30" s="127"/>
+      <c r="D30" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="32" t="s">
@@ -6793,8 +6892,12 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
@@ -6807,33 +6910,33 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="B43" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="13"/>
@@ -6845,128 +6948,128 @@
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="124" t="s">
+      <c r="B47" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="124"/>
-      <c r="D47" s="59">
+      <c r="C47" s="125"/>
+      <c r="D47" s="54">
         <v>3</v>
       </c>
-      <c r="E47" s="59"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="93" t="s">
+      <c r="G47" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="93"/>
+      <c r="H47" s="55"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="125" t="s">
+      <c r="B48" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="125"/>
-      <c r="D48" s="62" t="s">
+      <c r="C48" s="126"/>
+      <c r="D48" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="62"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B49" s="125" t="s">
+      <c r="B49" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="125"/>
-      <c r="D49" s="62" t="s">
+      <c r="C49" s="126"/>
+      <c r="D49" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="62"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="125"/>
-      <c r="D50" s="51" t="s">
+      <c r="C50" s="126"/>
+      <c r="D50" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="2:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="126" t="s">
+      <c r="B51" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="126"/>
-      <c r="D51" s="55" t="s">
+      <c r="C51" s="127"/>
+      <c r="D51" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="32" t="s">
@@ -7047,33 +7150,33 @@
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B67" s="13"/>
@@ -7085,128 +7188,132 @@
       <c r="H67" s="13"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B68" s="124" t="s">
+      <c r="B68" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="124"/>
-      <c r="D68" s="59">
+      <c r="C68" s="125"/>
+      <c r="D68" s="54">
         <v>4</v>
       </c>
-      <c r="E68" s="59"/>
+      <c r="E68" s="54"/>
       <c r="F68" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="93" t="s">
+      <c r="G68" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H68" s="93"/>
+      <c r="H68" s="55"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B69" s="125" t="s">
+      <c r="B69" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="125"/>
-      <c r="D69" s="62" t="s">
+      <c r="C69" s="126"/>
+      <c r="D69" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="62"/>
+      <c r="E69" s="49"/>
       <c r="F69" s="36"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B70" s="125" t="s">
+      <c r="B70" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="125"/>
-      <c r="D70" s="62" t="s">
+      <c r="C70" s="126"/>
+      <c r="D70" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="62"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
+      <c r="G70" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="50"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B71" s="125" t="s">
+      <c r="B71" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="125"/>
-      <c r="D71" s="51" t="s">
+      <c r="C71" s="126"/>
+      <c r="D71" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="56"/>
       <c r="F71" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
+      <c r="G71" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="H71" s="57"/>
     </row>
     <row r="72" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="126" t="s">
+      <c r="B72" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="126"/>
-      <c r="D72" s="55" t="s">
+      <c r="C72" s="127"/>
+      <c r="D72" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B74" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="107"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="107"/>
+      <c r="B74" s="99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B75" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
+      <c r="B75" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B78" s="32" t="s">
@@ -7287,113 +7394,36 @@
       <c r="H83" s="12"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H65"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B85:H86"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="B68:C68"/>
@@ -7403,6 +7433,83 @@
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B85:H86"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H65"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
